--- a/O9_Messwerte.xlsx
+++ b/O9_Messwerte.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias von Däniken\Documents\GitHub\Physikbericht_O9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860E8AF5-3D95-40D0-AD57-7D58317A5BED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE940279-895F-496D-BF96-E1788862C564}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8074" activeTab="2" xr2:uid="{43A41032-ACA2-402E-A7FE-9F2117665170}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8074" xr2:uid="{43A41032-ACA2-402E-A7FE-9F2117665170}"/>
   </bookViews>
   <sheets>
     <sheet name="Spalt, Antispalt" sheetId="1" r:id="rId1"/>
-    <sheet name="Loch" sheetId="2" r:id="rId2"/>
-    <sheet name="Gitter" sheetId="3" r:id="rId3"/>
+    <sheet name="Antispalt" sheetId="4" r:id="rId2"/>
+    <sheet name="Loch" sheetId="2" r:id="rId3"/>
+    <sheet name="Gitter" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017" calcMode="manual"/>
   <extLst>
@@ -534,23 +535,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEB0688-02D9-4D45-829D-01D2FCC3251D}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -569,26 +567,8 @@
       <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -610,29 +590,8 @@
         <f>E3/A3</f>
         <v>5.3999999999999986E-2</v>
       </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>34.1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>34.9</v>
-      </c>
-      <c r="K3" s="9">
-        <f>J3-I3</f>
-        <v>0.79999999999999716</v>
-      </c>
-      <c r="L3" s="9">
-        <f>K3/100</f>
-        <v>7.9999999999999724E-3</v>
-      </c>
-      <c r="M3" s="2">
-        <f>L3/H3</f>
-        <v>7.9999999999999724E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -654,29 +613,8 @@
         <f t="shared" ref="F4:F5" si="2">E4/A4</f>
         <v>5.3250000000000013E-2</v>
       </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>33.65</v>
-      </c>
-      <c r="J4" s="2">
-        <v>35.4</v>
-      </c>
-      <c r="K4" s="9">
-        <f>J4-I4</f>
-        <v>1.75</v>
-      </c>
-      <c r="L4" s="9">
-        <f t="shared" ref="L4:L16" si="3">K4/100</f>
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" ref="M4:M16" si="4">L4/H4</f>
-        <v>8.7500000000000008E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -698,29 +636,8 @@
         <f t="shared" si="2"/>
         <v>5.1666666666666666E-2</v>
       </c>
-      <c r="H5" s="2">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="J5" s="2">
-        <v>35.65</v>
-      </c>
-      <c r="K5" s="9">
-        <f>J5-I5</f>
-        <v>2.3500000000000014</v>
-      </c>
-      <c r="L5" s="9">
-        <f t="shared" si="3"/>
-        <v>2.3500000000000014E-2</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="4"/>
-        <v>7.833333333333338E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -732,29 +649,8 @@
         <f>SUM(F3:F5)/3</f>
         <v>5.2972222222222219E-2</v>
       </c>
-      <c r="H6" s="2">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2">
-        <v>32.9</v>
-      </c>
-      <c r="J6" s="8">
-        <v>36.049999999999997</v>
-      </c>
-      <c r="K6" s="9">
-        <f>J6-I6</f>
-        <v>3.1499999999999986</v>
-      </c>
-      <c r="L6" s="9">
-        <f>K6/100</f>
-        <v>3.1499999999999986E-2</v>
-      </c>
-      <c r="M6" s="2">
-        <f>L6/H6</f>
-        <v>7.8749999999999966E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -763,57 +659,15 @@
         <v>19</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="H7" s="2">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>32.5</v>
-      </c>
-      <c r="J7" s="8">
-        <v>36.450000000000003</v>
-      </c>
-      <c r="K7" s="9">
-        <f>J7-I7</f>
-        <v>3.9500000000000028</v>
-      </c>
-      <c r="L7" s="9">
-        <f>K7/100</f>
-        <v>3.9500000000000028E-2</v>
-      </c>
-      <c r="M7" s="2">
-        <f>L7/H7</f>
-        <v>7.900000000000006E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="H8" s="2">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2">
-        <v>32.1</v>
-      </c>
-      <c r="J8" s="8">
-        <v>36.9</v>
-      </c>
-      <c r="K8" s="9">
-        <f>J8-I8</f>
-        <v>4.7999999999999972</v>
-      </c>
-      <c r="L8" s="9">
-        <f>K8/100</f>
-        <v>4.7999999999999973E-2</v>
-      </c>
-      <c r="M8" s="2">
-        <f>L8/H8</f>
-        <v>7.999999999999995E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="18.45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="9" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
@@ -822,29 +676,8 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="H9" s="2">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2">
-        <v>31.7</v>
-      </c>
-      <c r="J9" s="8">
-        <v>37.25</v>
-      </c>
-      <c r="K9" s="9">
-        <f>J9-I9</f>
-        <v>5.5500000000000007</v>
-      </c>
-      <c r="L9" s="9">
-        <f>K9/100</f>
-        <v>5.5500000000000008E-2</v>
-      </c>
-      <c r="M9" s="2">
-        <f>L9/H9</f>
-        <v>7.9285714285714289E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -863,29 +696,8 @@
       <c r="F10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="2">
-        <v>8</v>
-      </c>
-      <c r="I10" s="2">
-        <v>31.4</v>
-      </c>
-      <c r="J10" s="8">
-        <v>37.65</v>
-      </c>
-      <c r="K10" s="9">
-        <f>J10-I10</f>
-        <v>6.25</v>
-      </c>
-      <c r="L10" s="9">
-        <f>K10/100</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="M10" s="2">
-        <f>L10/H10</f>
-        <v>7.8125E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -907,29 +719,8 @@
         <f>E11/A11</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="H11" s="2">
-        <v>9</v>
-      </c>
-      <c r="I11" s="2">
-        <v>30.9</v>
-      </c>
-      <c r="J11" s="8">
-        <v>38.049999999999997</v>
-      </c>
-      <c r="K11" s="9">
-        <f>J11-I11</f>
-        <v>7.1499999999999986</v>
-      </c>
-      <c r="L11" s="9">
-        <f>K11/100</f>
-        <v>7.149999999999998E-2</v>
-      </c>
-      <c r="M11" s="2">
-        <f>L11/H11</f>
-        <v>7.9444444444444415E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -940,40 +731,19 @@
         <v>35.799999999999997</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" ref="D12:D22" si="5">C12-B12</f>
+        <f t="shared" ref="D12:D22" si="3">C12-B12</f>
         <v>2.6499999999999986</v>
       </c>
       <c r="E12" s="9">
-        <f t="shared" ref="E12:E22" si="6">D12/100</f>
+        <f t="shared" ref="E12:E22" si="4">D12/100</f>
         <v>2.6499999999999985E-2</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ref="F12:F22" si="7">E12/A12</f>
+        <f t="shared" ref="F12:F22" si="5">E12/A12</f>
         <v>1.3249999999999993E-2</v>
       </c>
-      <c r="H12" s="2">
-        <v>10</v>
-      </c>
-      <c r="I12" s="2">
-        <v>30.5</v>
-      </c>
-      <c r="J12" s="8">
-        <v>38.450000000000003</v>
-      </c>
-      <c r="K12" s="9">
-        <f>J12-I12</f>
-        <v>7.9500000000000028</v>
-      </c>
-      <c r="L12" s="9">
-        <f>K12/100</f>
-        <v>7.9500000000000029E-2</v>
-      </c>
-      <c r="M12" s="2">
-        <f>L12/H12</f>
-        <v>7.9500000000000022E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -984,40 +754,19 @@
         <v>36.450000000000003</v>
       </c>
       <c r="D13" s="9">
+        <f t="shared" si="3"/>
+        <v>3.9000000000000057</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="4"/>
+        <v>3.9000000000000055E-2</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="5"/>
-        <v>3.9000000000000057</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="6"/>
-        <v>3.9000000000000055E-2</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="7"/>
         <v>1.3000000000000018E-2</v>
       </c>
-      <c r="H13" s="2">
-        <v>11</v>
-      </c>
-      <c r="I13" s="2">
-        <v>30.1</v>
-      </c>
-      <c r="J13" s="8">
-        <v>38.85</v>
-      </c>
-      <c r="K13" s="9">
-        <f>J13-I13</f>
-        <v>8.75</v>
-      </c>
-      <c r="L13" s="9">
-        <f>K13/100</f>
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="M13" s="2">
-        <f>L13/H13</f>
-        <v>7.9545454545454537E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -1028,40 +777,19 @@
         <v>39.1</v>
       </c>
       <c r="D14" s="9">
+        <f t="shared" si="3"/>
+        <v>7.25</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="4"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" si="5"/>
-        <v>7.25</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="6"/>
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="7"/>
         <v>1.8124999999999999E-2</v>
       </c>
-      <c r="H14" s="2">
-        <v>12</v>
-      </c>
-      <c r="I14" s="2">
-        <v>29.75</v>
-      </c>
-      <c r="J14" s="8">
-        <v>39.25</v>
-      </c>
-      <c r="K14" s="9">
-        <f>J14-I14</f>
-        <v>9.5</v>
-      </c>
-      <c r="L14" s="9">
-        <f>K14/100</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="M14" s="2">
-        <f>L14/H14</f>
-        <v>7.9166666666666673E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -1072,26 +800,19 @@
         <v>37.799999999999997</v>
       </c>
       <c r="D15" s="9">
+        <f t="shared" si="3"/>
+        <v>6.5999999999999979</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="4"/>
+        <v>6.5999999999999975E-2</v>
+      </c>
+      <c r="F15" s="2">
         <f t="shared" si="5"/>
-        <v>6.5999999999999979</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="6"/>
-        <v>6.5999999999999975E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="7"/>
         <v>1.3199999999999995E-2</v>
       </c>
-      <c r="L15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="15">
-        <f>SUM(M3:M14)/12</f>
-        <v>7.9887551106301077E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -1102,23 +823,19 @@
         <v>38.4</v>
       </c>
       <c r="D16" s="9">
+        <f t="shared" si="3"/>
+        <v>7.8499999999999979</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="4"/>
+        <v>7.8499999999999973E-2</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="5"/>
-        <v>7.8499999999999979</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="6"/>
-        <v>7.8499999999999973E-2</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="7"/>
         <v>1.3083333333333329E-2</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>7</v>
       </c>
@@ -1129,19 +846,19 @@
         <v>39.1</v>
       </c>
       <c r="D17" s="9">
+        <f t="shared" si="3"/>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="4"/>
+        <v>9.2000000000000026E-2</v>
+      </c>
+      <c r="F17" s="2">
         <f t="shared" si="5"/>
-        <v>9.2000000000000028</v>
-      </c>
-      <c r="E17" s="9">
-        <f t="shared" si="6"/>
-        <v>9.2000000000000026E-2</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="7"/>
         <v>1.3142857142857147E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>8</v>
       </c>
@@ -1152,22 +869,19 @@
         <v>39.75</v>
       </c>
       <c r="D18" s="9">
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="4"/>
+        <v>0.105</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="5"/>
-        <v>10.5</v>
-      </c>
-      <c r="E18" s="9">
-        <f t="shared" si="6"/>
-        <v>0.105</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="7"/>
         <v>1.3125E-2</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>9</v>
       </c>
@@ -1178,37 +892,19 @@
         <v>40.4</v>
       </c>
       <c r="D19" s="9">
+        <f t="shared" si="3"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="4"/>
+        <v>0.11799999999999997</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="5"/>
-        <v>11.799999999999997</v>
-      </c>
-      <c r="E19" s="9">
-        <f t="shared" si="6"/>
-        <v>0.11799999999999997</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="7"/>
         <v>1.3111111111111108E-2</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -1219,40 +915,19 @@
         <v>41.1</v>
       </c>
       <c r="D20" s="9">
+        <f t="shared" si="3"/>
+        <v>13.150000000000002</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="4"/>
+        <v>0.13150000000000003</v>
+      </c>
+      <c r="F20" s="2">
         <f t="shared" si="5"/>
-        <v>13.150000000000002</v>
-      </c>
-      <c r="E20" s="9">
-        <f t="shared" si="6"/>
-        <v>0.13150000000000003</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="7"/>
         <v>1.3150000000000004E-2</v>
       </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>33.450000000000003</v>
-      </c>
-      <c r="J20" s="2">
-        <v>35.549999999999997</v>
-      </c>
-      <c r="K20" s="9">
-        <f>J20-I20</f>
-        <v>2.0999999999999943</v>
-      </c>
-      <c r="L20" s="9">
-        <f>K20/100</f>
-        <v>2.0999999999999942E-2</v>
-      </c>
-      <c r="M20" s="2">
-        <f>L20/H20</f>
-        <v>2.0999999999999942E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>11</v>
       </c>
@@ -1263,40 +938,19 @@
         <v>41.75</v>
       </c>
       <c r="D21" s="9">
+        <f t="shared" si="3"/>
+        <v>14.45</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="4"/>
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="F21" s="2">
         <f t="shared" si="5"/>
-        <v>14.45</v>
-      </c>
-      <c r="E21" s="9">
-        <f t="shared" si="6"/>
-        <v>0.14449999999999999</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="7"/>
         <v>1.3136363636363635E-2</v>
       </c>
-      <c r="H21" s="2">
-        <v>2</v>
-      </c>
-      <c r="I21" s="2">
-        <v>32.4</v>
-      </c>
-      <c r="J21" s="2">
-        <v>36.549999999999997</v>
-      </c>
-      <c r="K21" s="9">
-        <f>J21-I21</f>
-        <v>4.1499999999999986</v>
-      </c>
-      <c r="L21" s="9">
-        <f t="shared" ref="L21:L27" si="8">K21/100</f>
-        <v>4.1499999999999988E-2</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" ref="M21:M27" si="9">L21/H21</f>
-        <v>2.0749999999999994E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>12</v>
       </c>
@@ -1307,40 +961,19 @@
         <v>42.4</v>
       </c>
       <c r="D22" s="9">
+        <f t="shared" si="3"/>
+        <v>15.75</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="4"/>
+        <v>0.1575</v>
+      </c>
+      <c r="F22" s="2">
         <f t="shared" si="5"/>
-        <v>15.75</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" si="6"/>
-        <v>0.1575</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="7"/>
         <v>1.3125E-2</v>
       </c>
-      <c r="H22" s="2">
-        <v>3</v>
-      </c>
-      <c r="I22" s="2">
-        <v>31.3</v>
-      </c>
-      <c r="J22" s="2">
-        <v>37.65</v>
-      </c>
-      <c r="K22" s="9">
-        <f>J22-I22</f>
-        <v>6.3499999999999979</v>
-      </c>
-      <c r="L22" s="9">
-        <f t="shared" si="8"/>
-        <v>6.3499999999999973E-2</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" si="9"/>
-        <v>2.1166666666666657E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E23" s="12" t="s">
         <v>18</v>
       </c>
@@ -1348,29 +981,8 @@
         <f>SUM(F11:F22)/12</f>
         <v>1.3495722101972101E-2</v>
       </c>
-      <c r="H23" s="2">
-        <v>4</v>
-      </c>
-      <c r="I23" s="2">
-        <v>30.25</v>
-      </c>
-      <c r="J23" s="8">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="K23" s="9">
-        <f>J23-I23</f>
-        <v>8.4500000000000028</v>
-      </c>
-      <c r="L23" s="9">
-        <f t="shared" si="8"/>
-        <v>8.4500000000000033E-2</v>
-      </c>
-      <c r="M23" s="2">
-        <f t="shared" si="9"/>
-        <v>2.1125000000000008E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1378,148 +990,26 @@
         <v>19</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="H24" s="2">
-        <v>5</v>
-      </c>
-      <c r="I24" s="2">
-        <v>29.2</v>
-      </c>
-      <c r="J24" s="8">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="K24" s="9">
-        <f>J24-I24</f>
-        <v>10.599999999999998</v>
-      </c>
-      <c r="L24" s="9">
-        <f t="shared" si="8"/>
-        <v>0.10599999999999998</v>
-      </c>
-      <c r="M24" s="2">
-        <f t="shared" si="9"/>
-        <v>2.1199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="2">
-        <v>6</v>
-      </c>
-      <c r="I25" s="2">
-        <v>28.1</v>
-      </c>
-      <c r="J25" s="8">
-        <v>40.9</v>
-      </c>
-      <c r="K25" s="9">
-        <f>J25-I25</f>
-        <v>12.799999999999997</v>
-      </c>
-      <c r="L25" s="9">
-        <f t="shared" si="8"/>
-        <v>0.12799999999999997</v>
-      </c>
-      <c r="M25" s="2">
-        <f t="shared" si="9"/>
-        <v>2.1333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="H26" s="2">
-        <v>7</v>
-      </c>
-      <c r="I26" s="2">
-        <v>27.05</v>
-      </c>
-      <c r="J26" s="8">
-        <v>41.9</v>
-      </c>
-      <c r="K26" s="9">
-        <f>J26-I26</f>
-        <v>14.849999999999998</v>
-      </c>
-      <c r="L26" s="9">
-        <f t="shared" si="8"/>
-        <v>0.14849999999999997</v>
-      </c>
-      <c r="M26" s="2">
-        <f t="shared" si="9"/>
-        <v>2.121428571428571E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="H27" s="2">
-        <v>8</v>
-      </c>
-      <c r="I27" s="2">
-        <v>26</v>
-      </c>
-      <c r="J27" s="8">
-        <v>43.95</v>
-      </c>
-      <c r="K27" s="9">
-        <f>J27-I27</f>
-        <v>17.950000000000003</v>
-      </c>
-      <c r="L27" s="9">
-        <f t="shared" si="8"/>
-        <v>0.17950000000000002</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" si="9"/>
-        <v>2.2437500000000003E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="15">
-        <f>SUM(M20:M27)/8</f>
-        <v>2.1278348214285706E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1528,6 +1018,569 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F09B1A-B318-45C3-9515-D6E6A749151A}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D14" si="0">C3-B3</f>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3/100</f>
+        <v>7.9999999999999724E-3</v>
+      </c>
+      <c r="F3" s="2">
+        <f>E3/A3</f>
+        <v>7.9999999999999724E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>33.65</v>
+      </c>
+      <c r="C4" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" ref="E4:E14" si="1">D4/100</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F14" si="2">E4/A4</f>
+        <v>8.7500000000000008E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C5" s="2">
+        <v>35.65</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>2.3500000000000014</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="1"/>
+        <v>2.3500000000000014E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>7.833333333333338E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>32.9</v>
+      </c>
+      <c r="C6" s="8">
+        <v>36.049999999999997</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>3.1499999999999986</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>3.1499999999999986E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8749999999999966E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="C7" s="8">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9500000000000028</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9500000000000028E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>7.900000000000006E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>36.9</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999973E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>7.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="C9" s="8">
+        <v>37.25</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5500000000000008E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>7.9285714285714289E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="C10" s="8">
+        <v>37.65</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8125E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="C11" s="8">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>7.1499999999999986</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="1"/>
+        <v>7.149999999999998E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>7.9444444444444415E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>7.9500000000000028</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="1"/>
+        <v>7.9500000000000029E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>7.9500000000000022E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>38.85</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="1"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>7.9545454545454537E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>29.75</v>
+      </c>
+      <c r="C14" s="8">
+        <v>39.25</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="1"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>7.9166666666666673E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="15">
+        <f>SUM(F3:F14)/12</f>
+        <v>7.9887551106301077E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A18" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="C20" s="2">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" ref="D20:D27" si="3">C20-B20</f>
+        <v>2.0999999999999943</v>
+      </c>
+      <c r="E20" s="9">
+        <f>D20/100</f>
+        <v>2.0999999999999942E-2</v>
+      </c>
+      <c r="F20" s="2">
+        <f>E20/A20</f>
+        <v>2.0999999999999942E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="3"/>
+        <v>4.1499999999999986</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" ref="E21:E27" si="4">D21/100</f>
+        <v>4.1499999999999988E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" ref="F21:F27" si="5">E21/A21</f>
+        <v>2.0749999999999994E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>37.65</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="3"/>
+        <v>6.3499999999999979</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="4"/>
+        <v>6.3499999999999973E-2</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1166666666666657E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>30.25</v>
+      </c>
+      <c r="C23" s="8">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="3"/>
+        <v>8.4500000000000028</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="4"/>
+        <v>8.4500000000000033E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1125000000000008E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="3"/>
+        <v>10.599999999999998</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="4"/>
+        <v>0.10599999999999998</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>40.9</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" si="3"/>
+        <v>12.799999999999997</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="4"/>
+        <v>0.12799999999999997</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2">
+        <v>27.05</v>
+      </c>
+      <c r="C26" s="8">
+        <v>41.9</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="3"/>
+        <v>14.849999999999998</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="4"/>
+        <v>0.14849999999999997</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="5"/>
+        <v>2.121428571428571E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8">
+        <v>43.95</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="3"/>
+        <v>17.950000000000003</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="4"/>
+        <v>0.17950000000000002</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2437500000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="15">
+        <f>SUM(F20:F27)/8</f>
+        <v>2.1278348214285706E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A45CE2-9FDA-407C-BCCB-08C4B601AC1E}">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -1606,11 +1659,11 @@
         <v>3.7999999999999972</v>
       </c>
       <c r="E4" s="9">
-        <f t="shared" ref="E4:E16" si="0">D4/100</f>
+        <f t="shared" ref="E4:E15" si="0">D4/100</f>
         <v>3.7999999999999971E-2</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F16" si="1">E4/A4</f>
+        <f t="shared" ref="F4:F6" si="1">E4/A4</f>
         <v>1.8999999999999986E-2</v>
       </c>
     </row>
@@ -1839,12 +1892,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B031DA5-8C71-419E-A69C-3AAEAE52D860}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/O9_Messwerte.xlsx
+++ b/O9_Messwerte.xlsx
@@ -2,23 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias von Däniken\Documents\GitHub\Physikbericht_O9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias von Däniken\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE940279-895F-496D-BF96-E1788862C564}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC29331-ACEB-4957-A83F-1E8797E99183}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8074" xr2:uid="{43A41032-ACA2-402E-A7FE-9F2117665170}"/>
   </bookViews>
   <sheets>
-    <sheet name="Spalt, Antispalt" sheetId="1" r:id="rId1"/>
+    <sheet name="Spalt" sheetId="1" r:id="rId1"/>
     <sheet name="Antispalt" sheetId="4" r:id="rId2"/>
     <sheet name="Loch" sheetId="2" r:id="rId3"/>
     <sheet name="Gitter" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017" calcMode="manual"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
   <si>
     <t>Ordnung</t>
   </si>
@@ -103,6 +103,33 @@
   </si>
   <si>
     <t>Spalt  200 µm</t>
+  </si>
+  <si>
+    <t>d0</t>
+  </si>
+  <si>
+    <t>lamda</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>Fehlerhaftes loch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>fehler</t>
+  </si>
+  <si>
+    <t>Fehler L</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -142,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -176,11 +203,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -221,6 +274,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -535,20 +609,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEB0688-02D9-4D45-829D-01D2FCC3251D}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="13.4609375" customWidth="1"/>
+    <col min="8" max="8" width="13.15234375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -565,10 +643,14 @@
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -590,8 +672,12 @@
         <f>E3/A3</f>
         <v>5.3999999999999986E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H3">
+        <f>(F3-F$6)^2</f>
+        <v>1.0563271604938037E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -605,16 +691,20 @@
         <f t="shared" ref="D4:D5" si="0">C4-B4</f>
         <v>10.650000000000002</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="22">
         <f t="shared" ref="E4:E5" si="1">D4/100</f>
         <v>0.10650000000000003</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="23">
         <f t="shared" ref="F4:F5" si="2">E4/A4</f>
         <v>5.3250000000000013E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H4">
+        <f>(F4-F$6)^2</f>
+        <v>7.7160493827169203E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -636,8 +726,15 @@
         <f t="shared" si="2"/>
         <v>5.1666666666666666E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <f>(F5-F$6)^2</f>
+        <v>1.7044753086419683E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -649,8 +746,15 @@
         <f>SUM(F3:F5)/3</f>
         <v>5.2972222222222219E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" s="3">
+        <f>(2*B26*C25)/F6</f>
+        <v>4.9949575249082329E-5</v>
+      </c>
+      <c r="H6" s="18">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -658,26 +762,39 @@
       <c r="E7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F7" s="13">
+        <f>SQRT(SUM(H3:H5)/6)</f>
+        <v>6.8774546684110551E-4</v>
+      </c>
+      <c r="G7" s="24">
+        <v>6.4893999999999999E-7</v>
+      </c>
+      <c r="H7" s="18">
+        <v>3.0000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E9" s="20"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -694,10 +811,13 @@
         <v>9</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -719,8 +839,12 @@
         <f>E11/A11</f>
         <v>1.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H11">
+        <f>(F11-F$23)^2</f>
+        <v>9.9146250435573742E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -742,8 +866,12 @@
         <f t="shared" ref="F12:F22" si="5">E12/A12</f>
         <v>1.3249999999999993E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H12">
+        <f t="shared" ref="H12:H22" si="6">(F12-F$23)^2</f>
+        <v>6.0379351397591115E-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -765,8 +893,12 @@
         <f t="shared" si="5"/>
         <v>1.3000000000000018E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>2.4574040238361959E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -788,8 +920,12 @@
         <f t="shared" si="5"/>
         <v>1.8124999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>2.1430213857169593E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -811,8 +947,12 @@
         <f t="shared" si="5"/>
         <v>1.3199999999999995E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>8.7451561594800727E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -834,8 +974,12 @@
         <f t="shared" si="5"/>
         <v>1.3083333333333329E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>1.7006449649940266E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>7</v>
       </c>
@@ -857,8 +1001,12 @@
         <f t="shared" si="5"/>
         <v>1.3142857142857147E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>1.2451367937119797E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>8</v>
       </c>
@@ -880,8 +1028,12 @@
         <f t="shared" si="5"/>
         <v>1.3125E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>1.374348768906131E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>9</v>
       </c>
@@ -903,8 +1055,12 @@
         <f t="shared" si="5"/>
         <v>1.3111111111111108E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>1.4792561429107461E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -926,8 +1082,12 @@
         <f t="shared" si="5"/>
         <v>1.3150000000000004E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>1.1952377179200513E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>11</v>
       </c>
@@ -949,8 +1109,12 @@
         <f t="shared" si="5"/>
         <v>1.3136363636363635E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>1.2913850680447074E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>12</v>
       </c>
@@ -972,8 +1136,12 @@
         <f t="shared" si="5"/>
         <v>1.3125E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>1.374348768906131E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E23" s="12" t="s">
         <v>18</v>
       </c>
@@ -981,34 +1149,55 @@
         <f>SUM(F11:F22)/12</f>
         <v>1.3495722101972101E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G23" s="3">
+        <f>(2*B26*C25)/F23</f>
+        <v>1.9605768257582558E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F24" s="16">
+        <f>SQRT(SUM(H11:H22)/(11*12))</f>
+        <v>4.2445404772734432E-4</v>
+      </c>
+      <c r="G24" s="18">
+        <v>6.1669000000000002E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C25" s="7">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="18">
+        <v>6.3300000000000002E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G32" s="4"/>
     </row>
   </sheetData>
@@ -1019,20 +1208,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F09B1A-B318-45C3-9515-D6E6A749151A}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="11.84375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1049,10 +1241,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1074,8 +1266,12 @@
         <f>E3/A3</f>
         <v>7.9999999999999724E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H3">
+        <f>(F3-F$15)^2</f>
+        <v>1.2644753694049713E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1097,8 +1293,12 @@
         <f t="shared" ref="F4:F14" si="2">E4/A4</f>
         <v>8.7500000000000008E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H4">
+        <f t="shared" ref="H4:H14" si="3">(F4-F$15)^2</f>
+        <v>5.7949378159178085E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1120,8 +1320,12 @@
         <f t="shared" si="2"/>
         <v>7.833333333333338E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>2.4155928858086673E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1143,8 +1347,12 @@
         <f t="shared" si="2"/>
         <v>7.8749999999999966E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>1.2940225194468811E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1166,8 +1374,12 @@
         <f t="shared" si="2"/>
         <v>7.900000000000006E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>7.877469662961591E-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1189,8 +1401,12 @@
         <f t="shared" si="2"/>
         <v>7.999999999999995E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>1.264475369410043E-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1212,8 +1428,12 @@
         <f t="shared" si="2"/>
         <v>7.9285714285714289E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>3.62207558614013E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1235,8 +1455,12 @@
         <f t="shared" si="2"/>
         <v>7.8125E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>3.1065864023231491E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1258,8 +1482,12 @@
         <f t="shared" si="2"/>
         <v>7.9444444444444415E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>1.9634351378175409E-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1281,8 +1509,12 @@
         <f t="shared" si="2"/>
         <v>7.9500000000000022E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>1.5019585999517136E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1304,8 +1536,12 @@
         <f t="shared" si="2"/>
         <v>7.9545454545454537E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>1.1703005694303005E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1327,8 +1563,12 @@
         <f t="shared" si="2"/>
         <v>7.9166666666666673E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>5.1967437530700762E-9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E15" s="12" t="s">
         <v>18</v>
       </c>
@@ -1336,19 +1576,29 @@
         <f>SUM(F3:F14)/12</f>
         <v>7.9887551106301077E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G15">
+        <f>(2*B33*C32)/F15</f>
+        <v>3.3120804973471054E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="F16" s="3">
+        <f>SQRT(SUM(H3:H14)/(11*12))</f>
+        <v>7.1203968546343268E-5</v>
+      </c>
+      <c r="G16" s="18">
+        <v>2.9563E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -1365,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -1379,7 +1629,7 @@
         <v>35.549999999999997</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" ref="D20:D27" si="3">C20-B20</f>
+        <f t="shared" ref="D20:D27" si="4">C20-B20</f>
         <v>2.0999999999999943</v>
       </c>
       <c r="E20" s="9">
@@ -1390,8 +1640,12 @@
         <f>E20/A20</f>
         <v>2.0999999999999942E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H20">
+        <f>(F20-F$28)^2</f>
+        <v>7.7477728396073552E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -1402,19 +1656,23 @@
         <v>36.549999999999997</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1499999999999986</v>
       </c>
       <c r="E21" s="9">
-        <f t="shared" ref="E21:E27" si="4">D21/100</f>
+        <f t="shared" ref="E21:E27" si="5">D21/100</f>
         <v>4.1499999999999988E-2</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" ref="F21:F27" si="5">E21/A21</f>
+        <f t="shared" ref="F21:F27" si="6">E21/A21</f>
         <v>2.0749999999999994E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H21">
+        <f t="shared" ref="H21:H27" si="7">(F21-F$28)^2</f>
+        <v>2.7915183553890078E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -1425,19 +1683,23 @@
         <v>37.65</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3499999999999979</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.3499999999999973E-2</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1166666666666657E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>1.2472768078586063E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -1448,19 +1710,23 @@
         <v>38.700000000000003</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4500000000000028</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.4500000000000033E-2</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1125000000000008E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>2.3515674824612318E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -1471,19 +1737,23 @@
         <v>39.799999999999997</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.599999999999998</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10599999999999998</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1199999999999997E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H24">
+        <f t="shared" si="7"/>
+        <v>6.1384426817594736E-9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>6</v>
       </c>
@@ -1494,19 +1764,23 @@
         <v>40.9</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.799999999999997</v>
       </c>
       <c r="E25" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12799999999999997</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1333333333333329E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>3.023363316681263E-9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>7</v>
       </c>
@@ -1517,19 +1791,23 @@
         <v>41.9</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.849999999999998</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14849999999999997</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.121428571428571E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>4.1040039062495409E-9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>8</v>
       </c>
@@ -1540,19 +1818,23 @@
         <v>43.95</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.950000000000003</v>
       </c>
       <c r="E27" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17950000000000002</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2437500000000003E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H27">
+        <f t="shared" si="7"/>
+        <v>1.343632862324642E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
@@ -1564,8 +1846,12 @@
         <f>SUM(F20:F27)/8</f>
         <v>2.1278348214285706E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G28">
+        <f>(2*B33*C32)/F28</f>
+        <v>1.2434893786650165E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
@@ -1573,29 +1859,61 @@
       <c r="E29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3">
+        <f>SQRT(SUM(H20:H27)/(8*7))</f>
+        <v>1.7675228221740899E-4</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1.0346E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="18">
+        <v>6.3300000000000002E-7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A45CE2-9FDA-407C-BCCB-08C4B601AC1E}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="8" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.84375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1614,11 +1932,17 @@
       <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1640,11 +1964,22 @@
         <f>E3/A3</f>
         <v>2.0499999999999973E-2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="5">
+        <f>ATAN2(C$19,E3)</f>
+        <v>9.8082978998155802E-3</v>
+      </c>
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K3">
+        <v>4.5</v>
+      </c>
+      <c r="N3">
+        <f>(F3-F$7)^2</f>
+        <v>2.036566840277735E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1666,8 +2001,16 @@
         <f t="shared" ref="F4:F6" si="1">E4/A4</f>
         <v>1.8999999999999986E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G4" s="5">
+        <f>ATAN2(C$19,E4)</f>
+        <v>1.8179815072978268E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N6" si="2">(F4-F$7)^2</f>
+        <v>5.3168402777781247E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1689,8 +2032,16 @@
         <f t="shared" si="1"/>
         <v>1.8666666666666661E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G5" s="5">
+        <f>ATAN2(C$19,E5)</f>
+        <v>2.6787848979534925E-2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>1.6503906249999467E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1712,8 +2063,16 @@
         <f t="shared" si="1"/>
         <v>1.8124999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G6" s="5">
+        <f>ATAN2(C$19,E6)</f>
+        <v>3.4675091191461213E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>8.9854600694442413E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
@@ -1725,8 +2084,12 @@
         <f>SUM(F3:F6)/4</f>
         <v>1.9072916666666655E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G7" s="20">
+        <f>(B20*C19)/F7</f>
+        <v>6.9363801201529254E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
@@ -1734,23 +2097,31 @@
       <c r="E8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F8" s="13">
+        <f>SQRT(SUM(N3:N6)/(12))</f>
+        <v>5.0871314362811021E-4</v>
+      </c>
+      <c r="G8" s="25">
+        <v>3.7007E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1769,11 +2140,12 @@
       <c r="F11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" s="7"/>
+      <c r="I11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1795,11 +2167,19 @@
         <f>E12/A12</f>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" s="5"/>
+      <c r="I12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K12">
+        <v>1.25</v>
+      </c>
+      <c r="N12">
+        <f>(F12-F$16)^2</f>
+        <v>1.3514062500000007E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -1818,11 +2198,16 @@
         <v>3.2000000000000028E-2</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ref="F13:F15" si="2">E13/A13</f>
+        <f t="shared" ref="F13:F15" si="3">E13/A13</f>
         <v>1.6000000000000014E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G13" s="5"/>
+      <c r="N13">
+        <f t="shared" ref="N13:N15" si="4">(F13-F$16)^2</f>
+        <v>1.139062499999913E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -1841,11 +2226,16 @@
         <v>4.7999999999999973E-2</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.599999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G14" s="5"/>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>1.139062500000077E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -1864,11 +2254,16 @@
         <v>6.3399999999999998E-2</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.585E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G15" s="5"/>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>2.3765625000000177E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
@@ -1880,29 +2275,65 @@
         <f>SUM(F12:F15)/4</f>
         <v>1.6337500000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="G16" s="21">
+        <f>(2*B20*K12)/F16</f>
+        <v>9.6863045141545528E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <f>SQRT(SUM(N12:N15)/(12))</f>
+        <v>3.8910956040683471E-4</v>
+      </c>
+      <c r="G17" s="25">
+        <v>3.8581000000000004E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="18">
+        <v>6.3300000000000002E-7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B031DA5-8C71-419E-A69C-3AAEAE52D860}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="8" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.84375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
@@ -1910,7 +2341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1932,8 +2363,14 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="18">
+        <v>6.3300000000000002E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1958,8 +2395,15 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J3">
+        <v>1.25</v>
+      </c>
+      <c r="N3">
+        <f>(F3-F$7)^2</f>
+        <v>2.4871918402777333E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1981,8 +2425,12 @@
         <f t="shared" ref="F4:F6" si="1">E4/A4</f>
         <v>2.2049999999999983E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="N4">
+        <f t="shared" ref="N4:N6" si="2">(F4-F$7)^2</f>
+        <v>2.7781684027779706E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2004,8 +2452,12 @@
         <f t="shared" si="1"/>
         <v>2.2133333333333335E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>1.9691406249999974E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2027,8 +2479,12 @@
         <f t="shared" si="1"/>
         <v>2.5125000000000012E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>6.4918793402778332E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
@@ -2040,8 +2496,12 @@
         <f>SUM(F3:F6)/4</f>
         <v>2.2577083333333334E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G7">
+        <f>(2*L2*J3)/F7</f>
+        <v>7.0093199224877733E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
@@ -2049,9 +2509,15 @@
       <c r="E8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="F8" s="3">
+        <f>SQRT(SUM(N3:N6)/(12))</f>
+        <v>8.8759046878488976E-4</v>
+      </c>
+      <c r="G8" s="18">
+        <v>4.6076999999999999E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -2059,12 +2525,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -2084,7 +2550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -2106,8 +2572,12 @@
         <f>E13/A13</f>
         <v>2.6000000000000013E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H13">
+        <f>(F13-F$17)^2</f>
+        <v>9.7656250000006675E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -2122,15 +2592,19 @@
         <v>5.1000000000000014</v>
       </c>
       <c r="E14" s="9">
-        <f t="shared" ref="E14:E16" si="2">D14/100</f>
+        <f t="shared" ref="E14:E16" si="3">D14/100</f>
         <v>5.1000000000000018E-2</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" ref="F14:F16" si="3">E14/A14</f>
+        <f t="shared" ref="F14:F16" si="4">E14/A14</f>
         <v>2.5500000000000009E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H14">
+        <f t="shared" ref="H14:H16" si="5">(F14-F$17)^2</f>
+        <v>3.515624999999746E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -2145,15 +2619,19 @@
         <v>7.6499999999999986</v>
       </c>
       <c r="E15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.6499999999999985E-2</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999995E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>3.5156250000002668E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -2168,15 +2646,19 @@
         <v>10.299999999999997</v>
       </c>
       <c r="E16" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10299999999999997</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5749999999999992E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>3.9062499999987061E-9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
@@ -2188,8 +2670,12 @@
         <f>SUM(F13:F16)/4</f>
         <v>2.5687500000000002E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17">
+        <f>(2*L2*J3)/F17</f>
+        <v>6.1605839416058395E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
@@ -2197,14 +2683,20 @@
       <c r="E18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F18" s="2">
+        <f>SQRT(SUM(H13:H16)/(12))</f>
+        <v>1.1967838846954417E-4</v>
+      </c>
+      <c r="G18" s="18">
+        <v>4.8241999999999995E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -2224,7 +2716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -2246,8 +2738,15 @@
         <f>E21/A21</f>
         <v>3.9999999999999862E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H21">
+        <f>(F21-F$25)^2</f>
+        <v>3.5253906250001815E-7</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -2262,15 +2761,20 @@
         <v>0.85000000000000142</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" ref="E22:E24" si="4">D22/100</f>
+        <f t="shared" ref="E22:E24" si="6">D22/100</f>
         <v>8.5000000000000145E-3</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" ref="F22:F24" si="5">E22/A22</f>
+        <f t="shared" ref="F22:F24" si="7">E22/A22</f>
         <v>4.2500000000000072E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H22">
+        <f t="shared" ref="H22:H24" si="8">(F22-F$25)^2</f>
+        <v>1.1816406249999603E-7</v>
+      </c>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>3</v>
       </c>
@@ -2285,15 +2789,20 @@
         <v>1.5</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H23">
+        <f t="shared" si="8"/>
+        <v>1.6503906249999888E-7</v>
+      </c>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -2308,15 +2817,20 @@
         <v>2.0500000000000043</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0500000000000042E-2</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.1250000000000106E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H24">
+        <f t="shared" si="8"/>
+        <v>2.8222656250000972E-7</v>
+      </c>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="E25" s="12" t="s">
         <v>18</v>
       </c>
@@ -2324,14 +2838,26 @@
         <f>SUM(F21:F24)/4</f>
         <v>4.5937500000000015E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G25">
+        <f>(2*L2*J3)/F25</f>
+        <v>3.4448979591836725E-4</v>
+      </c>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="E26" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="3"/>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I21:I25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>